--- a/test/results/measurements.xlsx
+++ b/test/results/measurements.xlsx
@@ -2062,6 +2062,2974 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Steps per second</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>local!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>local!$E$8:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>local!$I$8:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.8613930000068617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7625751363748445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42140139224277579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>local!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simple_opt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>local!$E$11:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>local!$I$11:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16.977698095781381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5287844713722065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0016322599307832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>local!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>local!$E$14:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>local!$I$14:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.049103522839893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9026372703578414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7884225809806717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>local!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>local!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>local!$I$5:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.526223088979307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9298409682602049</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2826714043417657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>local!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hybrid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>local!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>local!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33.592104511755558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4494142021133687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6317049921864677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="392374568"/>
+        <c:axId val="488637664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="392374568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20000"/>
+          <c:min val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Problem size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488637664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="488637664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392374568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Wallclock</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> time</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.6726999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26222299999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89941800000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3575719999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$H$6:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.6314999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.146761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51136400000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7077329999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$10:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$H$10:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0943E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1528999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27611599999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91596599999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$H$14:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5718E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8502999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1573</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51206600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$18:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$H$18:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.8995000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.102214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29708099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="497404040"/>
+        <c:axId val="497413448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="497404040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20000"/>
+          <c:min val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Problem size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497413448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="497413448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497404040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Parallel efficiency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$K$2:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.91227933630818558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97799446599704398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99413886853180933</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99819116739290015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$K$6:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8955556119278042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96262217385506266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98665229520598685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99633601555813645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$10:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$K$10:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.83104930722502712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94411490191243064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9692380842006364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99220051563049283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$K$14:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.83858628702614924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90202143174586902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97237461402234138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99161330731083208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$18:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$K$18:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.68138725416462975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95430082002325656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98597128332484618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="497407176"/>
+        <c:axId val="497409920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="497407176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20000"/>
+          <c:min val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Problem size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497409920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="497409920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497407176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Steps per second</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>115.30434582079398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.135480106626808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.118300945722678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9783426833437976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$I$6:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>177.57258279321672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.137993063552301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.555541649392602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8557163209939729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$10:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$I$10:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>244.2419949686149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.25499022167837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.21666256211158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.917435800018779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$I$14:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>279.97088302816508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170.93140522708237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.572790845518121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.528732624310148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hpc!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hpc!$E$18:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hpc!$I$18:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>526.45433008686496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.833956209521205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.66085343727805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="497405216"/>
+        <c:axId val="497414624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="497405216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20000"/>
+          <c:min val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Problem size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497414624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="497414624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497405216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2142,6 +5110,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2659,6 +5787,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3233,6 +8425,139 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>93890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>687161</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60553</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>229961</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>79603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>658586</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>31978</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>249011</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>184378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>677636</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>151041</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3507,7 +8832,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4131,8 +9456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4218,34 +9543,34 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G3">
-        <v>2.8242600000000002</v>
+        <v>7.1806739999999998</v>
       </c>
       <c r="H3">
-        <v>5.6314999999999997E-2</v>
+        <v>0.26222299999999998</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I20" si="0">D3/H3</f>
-        <v>177.57258279321672</v>
+        <f>D3/H3</f>
+        <v>38.135480106626808</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J20" si="1">G3/H3</f>
-        <v>50.151114267957034</v>
+        <f>G3/H3</f>
+        <v>27.38384504791723</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K20" si="2">J3/(B3*C3)</f>
-        <v>0.8955556119278042</v>
+        <f>J3/(B3*C3)</f>
+        <v>0.97799446599704398</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4256,34 +9581,34 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="F4">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G4">
-        <v>3.810873</v>
+        <v>25.036099</v>
       </c>
       <c r="H4">
-        <v>4.0943E-2</v>
+        <v>0.89941800000000005</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>244.2419949686149</v>
+        <f>D4/H4</f>
+        <v>11.118300945722678</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
-        <v>93.077522409203041</v>
+        <f>G4/H4</f>
+        <v>27.83588831889066</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
-        <v>0.83104930722502712</v>
+        <f>J4/(B4*C4)</f>
+        <v>0.99413886853180933</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4294,34 +9619,34 @@
         <v>28</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="F5">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="G5">
-        <v>6.7093879999999997</v>
+        <v>93.841964000000004</v>
       </c>
       <c r="H5">
-        <v>3.5718E-2</v>
+        <v>3.3575719999999998</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>279.97088302816508</v>
+        <f>D5/H5</f>
+        <v>2.9783426833437976</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>187.84332829385744</v>
+        <f>G5/H5</f>
+        <v>27.949352687001205</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
-        <v>0.83858628702614924</v>
+        <f>J5/(B5*C5)</f>
+        <v>0.99819116739290015</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4332,34 +9657,34 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F6">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G6">
-        <v>7.1806739999999998</v>
+        <v>2.8242600000000002</v>
       </c>
       <c r="H6">
-        <v>0.26222299999999998</v>
+        <v>5.6314999999999997E-2</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>38.135480106626808</v>
+        <f>D6/H6</f>
+        <v>177.57258279321672</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>27.38384504791723</v>
+        <f>G6/H6</f>
+        <v>50.151114267957034</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
-        <v>0.97799446599704398</v>
+        <f>J6/(B6*C6)</f>
+        <v>0.8955556119278042</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4388,15 +9713,15 @@
         <v>0.146761</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f>D7/H7</f>
         <v>68.137993063552301</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f>G7/H7</f>
         <v>53.906841735883511</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f>J7/(B7*C7)</f>
         <v>0.96262217385506266</v>
       </c>
     </row>
@@ -4408,34 +9733,34 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F8">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G8">
-        <v>9.6783560000000008</v>
+        <v>28.254154</v>
       </c>
       <c r="H8">
-        <v>9.1528999999999999E-2</v>
+        <v>0.51136400000000004</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>109.25499022167837</v>
+        <f>D8/H8</f>
+        <v>19.555541649392602</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>105.74086901419223</v>
+        <f>G8/H8</f>
+        <v>55.252528531535262</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
-        <v>0.94411490191243064</v>
+        <f>J8/(B8*C8)</f>
+        <v>0.98665229520598685</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4446,34 +9771,34 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="F9">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="G9">
-        <v>11.820695000000001</v>
+        <v>95.282650000000004</v>
       </c>
       <c r="H9">
-        <v>5.8502999999999999E-2</v>
+        <v>1.7077329999999999</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>170.93140522708237</v>
+        <f>D9/H9</f>
+        <v>5.8557163209939729</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>202.05280071107467</v>
+        <f>G9/H9</f>
+        <v>55.794816871255641</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
-        <v>0.90202143174586902</v>
+        <f>J9/(B9*C9)</f>
+        <v>0.99633601555813645</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4484,34 +9809,34 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="F10">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="G10">
-        <v>25.036099</v>
+        <v>3.810873</v>
       </c>
       <c r="H10">
-        <v>0.89941800000000005</v>
+        <v>4.0943E-2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>11.118300945722678</v>
+        <f>D10/H10</f>
+        <v>244.2419949686149</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>27.83588831889066</v>
+        <f>G10/H10</f>
+        <v>93.077522409203041</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
-        <v>0.99413886853180933</v>
+        <f>J10/(B10*C10)</f>
+        <v>0.83104930722502712</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4522,34 +9847,34 @@
         <v>28</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F11">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G11">
-        <v>28.254154</v>
+        <v>9.6783560000000008</v>
       </c>
       <c r="H11">
-        <v>0.51136400000000004</v>
+        <v>9.1528999999999999E-2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>19.555541649392602</v>
+        <f>D11/H11</f>
+        <v>109.25499022167837</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>55.252528531535262</v>
+        <f>G11/H11</f>
+        <v>105.74086901419223</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
-        <v>0.98665229520598685</v>
+        <f>J11/(B11*C11)</f>
+        <v>0.94411490191243064</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4578,15 +9903,15 @@
         <v>0.27611599999999997</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f>D12/H12</f>
         <v>36.21666256211158</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f>G12/H12</f>
         <v>108.55466543047127</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f>J12/(B12*C12)</f>
         <v>0.9692380842006364</v>
       </c>
     </row>
@@ -4598,34 +9923,34 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="F13">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G13">
-        <v>34.261814000000001</v>
+        <v>101.78805699999999</v>
       </c>
       <c r="H13">
-        <v>0.1573</v>
+        <v>0.91596599999999995</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>63.572790845518121</v>
+        <f>D13/H13</f>
+        <v>10.917435800018779</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>217.81191354100446</v>
+        <f>G13/H13</f>
+        <v>111.1264577506152</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
-        <v>0.97237461402234138</v>
+        <f>J13/(B13*C13)</f>
+        <v>0.99220051563049283</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4636,34 +9961,34 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="F14">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="G14">
-        <v>43.699221000000001</v>
+        <v>6.7093879999999997</v>
       </c>
       <c r="H14">
-        <v>0.102214</v>
+        <v>3.5718E-2</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>97.833956209521205</v>
+        <f>D14/H14</f>
+        <v>279.97088302816508</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>427.52676737041895</v>
+        <f>G14/H14</f>
+        <v>187.84332829385744</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
-        <v>0.95430082002325656</v>
+        <f>J14/(B14*C14)</f>
+        <v>0.83858628702614924</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4674,34 +9999,34 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
       <c r="E15">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="F15">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="G15">
-        <v>93.841964000000004</v>
+        <v>11.820695000000001</v>
       </c>
       <c r="H15">
-        <v>3.3575719999999998</v>
+        <v>5.8502999999999999E-2</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
-        <v>2.9783426833437976</v>
+        <f>D15/H15</f>
+        <v>170.93140522708237</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>27.949352687001205</v>
+        <f>G15/H15</f>
+        <v>202.05280071107467</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
-        <v>0.99819116739290015</v>
+        <f>J15/(B15*C15)</f>
+        <v>0.90202143174586902</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4712,34 +10037,34 @@
         <v>28</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="E16">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="F16">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G16">
-        <v>95.282650000000004</v>
+        <v>34.261814000000001</v>
       </c>
       <c r="H16">
-        <v>1.7077329999999999</v>
+        <v>0.1573</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>5.8557163209939729</v>
+        <f>D16/H16</f>
+        <v>63.572790845518121</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>55.794816871255641</v>
+        <f>G16/H16</f>
+        <v>217.81191354100446</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
-        <v>0.99633601555813645</v>
+        <f>J16/(B16*C16)</f>
+        <v>0.97237461402234138</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -4750,7 +10075,7 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -4762,22 +10087,22 @@
         <v>40000</v>
       </c>
       <c r="G17">
-        <v>101.78805699999999</v>
+        <v>113.740807</v>
       </c>
       <c r="H17">
-        <v>0.91596599999999995</v>
+        <v>0.51206600000000002</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>10.917435800018779</v>
+        <f>D17/H17</f>
+        <v>19.528732624310148</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>111.1264577506152</v>
+        <f>G17/H17</f>
+        <v>222.12138083762639</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
-        <v>0.99220051563049283</v>
+        <f>J17/(B17*C17)</f>
+        <v>0.99161330731083208</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4788,34 +10113,34 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>10</v>
       </c>
       <c r="E18">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="F18">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="G18">
-        <v>113.740807</v>
+        <v>5.7984419999999997</v>
       </c>
       <c r="H18">
-        <v>0.51206600000000002</v>
+        <v>1.8995000000000001E-2</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>19.528732624310148</v>
+        <f>D18/H18</f>
+        <v>526.45433008686496</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>222.12138083762639</v>
+        <f>G18/H18</f>
+        <v>305.26148986575413</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
-        <v>0.99161330731083208</v>
+        <f>J18/(B18*C18)</f>
+        <v>0.68138725416462975</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4832,28 +10157,28 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="F19">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G19">
-        <v>131.22517400000001</v>
+        <v>43.699221000000001</v>
       </c>
       <c r="H19">
-        <v>0.29708099999999998</v>
+        <v>0.102214</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>33.66085343727805</v>
+        <f>D19/H19</f>
+        <v>97.833956209521205</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>441.71513492953108</v>
+        <f>G19/H19</f>
+        <v>427.52676737041895</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
-        <v>0.98597128332484618</v>
+        <f>J19/(B19*C19)</f>
+        <v>0.95430082002325656</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4870,31 +10195,36 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="F20">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="G20">
-        <v>5.7984419999999997</v>
+        <v>131.22517400000001</v>
       </c>
       <c r="H20">
-        <v>1.8995000000000001E-2</v>
+        <v>0.29708099999999998</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
-        <v>526.45433008686496</v>
+        <f>D20/H20</f>
+        <v>33.66085343727805</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>305.26148986575413</v>
+        <f>G20/H20</f>
+        <v>441.71513492953108</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
-        <v>0.68138725416462975</v>
+        <f>J20/(B20*C20)</f>
+        <v>0.98597128332484618</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:K20">
+    <sortCondition ref="C2:C20"/>
+    <sortCondition ref="E2:E20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>